--- a/data/trans_orig/RUIDO_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Habitat-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5348</v>
+        <v>4569</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.002343605834170915</v>
+        <v>0.002343605834170916</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01417158511681715</v>
+        <v>0.0121064609194123</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1855</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5473</v>
+        <v>5195</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0048641946665644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001224768555031555</v>
+        <v>0.001210142992604472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01435122488239434</v>
+        <v>0.01362108783588086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -783,19 +783,19 @@
         <v>2740</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>879</v>
+        <v>694</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7564</v>
+        <v>6552</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003610514426973985</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001158053037724181</v>
+        <v>0.0009152071535412109</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009968520883100922</v>
+        <v>0.008634791826528532</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8488</v>
+        <v>8923</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.006471895426621915</v>
+        <v>0.006471895426621916</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02249054805232152</v>
+        <v>0.0236433021159803</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3616</v>
+        <v>3453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00186280690732484</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.009480970939015166</v>
+        <v>0.009052532080833358</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -854,19 +854,19 @@
         <v>3153</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9153</v>
+        <v>9593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004155256641650945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0009625665225562117</v>
+        <v>0.0009447216310391353</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01206232627371499</v>
+        <v>0.01264242688689754</v>
       </c>
     </row>
     <row r="6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4053</v>
+        <v>4091</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002121775335351466</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01062711610919471</v>
+        <v>0.01072611899646525</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4065</v>
+        <v>3819</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001066455333693533</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005356809704115311</v>
+        <v>0.005033219226157071</v>
       </c>
     </row>
     <row r="8">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8283</v>
+        <v>8383</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006319226878131461</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02194669652705696</v>
+        <v>0.02221323136453354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1014,19 +1014,19 @@
         <v>5156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2317</v>
+        <v>2497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9866</v>
+        <v>10265</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01351902743973376</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006074803327860767</v>
+        <v>0.006547480202316398</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02586772046575241</v>
+        <v>0.02691402440906975</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>7541</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3882</v>
+        <v>4077</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13167</v>
+        <v>14124</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.009938019868379217</v>
+        <v>0.009938019868379215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005115684163636029</v>
+        <v>0.005372698195612303</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01735296609867495</v>
+        <v>0.01861307846156707</v>
       </c>
     </row>
     <row r="9">
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23414</v>
+        <v>21312</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01167959504948061</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06203754410397172</v>
+        <v>0.05646894382244366</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4133</v>
+        <v>3913</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001805179385803518</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01083694474788501</v>
+        <v>0.01026048204418211</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25744</v>
+        <v>22188</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006716476157399119</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03392679480871549</v>
+        <v>0.02924032234555421</v>
       </c>
     </row>
     <row r="10">
@@ -1135,19 +1135,19 @@
         <v>5842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2604</v>
+        <v>2470</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13006</v>
+        <v>12284</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01547839880138045</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006899157159747393</v>
+        <v>0.006543965209018829</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03446146919578454</v>
+        <v>0.03254871197935257</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1156,19 +1156,19 @@
         <v>5973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2828</v>
+        <v>2739</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10913</v>
+        <v>11243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0156602003387406</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007415909429902061</v>
+        <v>0.007180998725550194</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02861334452841523</v>
+        <v>0.02947940161525656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1177,19 +1177,19 @@
         <v>11814</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7154</v>
+        <v>6606</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19676</v>
+        <v>19319</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01556977662822247</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009427482762467245</v>
+        <v>0.008705787724892293</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02593028413992399</v>
+        <v>0.02546002134969549</v>
       </c>
     </row>
     <row r="11">
@@ -1206,19 +1206,19 @@
         <v>4801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1625</v>
+        <v>1703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10556</v>
+        <v>11671</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01272198353687601</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004305999002768435</v>
+        <v>0.004512823024207505</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02796830460496829</v>
+        <v>0.03092524357883244</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1227,19 +1227,19 @@
         <v>3708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1502</v>
+        <v>1581</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7831</v>
+        <v>7500</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009722562881415932</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003936932112330712</v>
+        <v>0.004144833736086031</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02053202847616253</v>
+        <v>0.01966489423940406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1248,19 +1248,19 @@
         <v>8510</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4257</v>
+        <v>4714</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15494</v>
+        <v>15003</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01121440254905381</v>
+        <v>0.0112144025490538</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005609743930081248</v>
+        <v>0.006212140098610684</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02041885153006531</v>
+        <v>0.01977137953171921</v>
       </c>
     </row>
     <row r="12">
@@ -1277,19 +1277,19 @@
         <v>17262</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9155</v>
+        <v>9478</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29202</v>
+        <v>29269</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04573866584503753</v>
+        <v>0.04573866584503754</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02425689596377077</v>
+        <v>0.02511370536462112</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07737515568616554</v>
+        <v>0.07755176329450542</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1298,19 +1298,19 @@
         <v>22920</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16701</v>
+        <v>16799</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31790</v>
+        <v>30982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06009515760620084</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0437884898505326</v>
+        <v>0.04404560182931763</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08335149587748372</v>
+        <v>0.08123459069407919</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>56</v>
@@ -1319,19 +1319,19 @@
         <v>40182</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29554</v>
+        <v>30233</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53738</v>
+        <v>55096</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05295458402295514</v>
+        <v>0.05295458402295516</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03894871180138568</v>
+        <v>0.03984353645966018</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07081953354535479</v>
+        <v>0.0726087407334301</v>
       </c>
     </row>
     <row r="13">
@@ -1348,19 +1348,19 @@
         <v>56408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44213</v>
+        <v>44358</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71530</v>
+        <v>70871</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1494596455641995</v>
+        <v>0.1494596455641996</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1171474097981689</v>
+        <v>0.117532958587219</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1895298928327039</v>
+        <v>0.1877825665704322</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -1369,19 +1369,19 @@
         <v>40949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32472</v>
+        <v>32317</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51871</v>
+        <v>50280</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1073673355317158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08513984560501135</v>
+        <v>0.08473447685797601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1360035889541613</v>
+        <v>0.1318339162095755</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -1390,19 +1390,19 @@
         <v>97357</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82985</v>
+        <v>82468</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113138</v>
+        <v>114352</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1283030377963049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1093630630986784</v>
+        <v>0.1086817740186783</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1491008785233956</v>
+        <v>0.150700274268739</v>
       </c>
     </row>
     <row r="14">
@@ -1419,19 +1419,19 @@
         <v>282977</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>264069</v>
+        <v>264059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302379</v>
+        <v>300183</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7497869830641017</v>
+        <v>0.7497869830641016</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6996869911833653</v>
+        <v>0.6996603410346041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8011937240235465</v>
+        <v>0.7953757861770953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>521</v>
@@ -1440,19 +1440,19 @@
         <v>298623</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>284410</v>
+        <v>286259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>310961</v>
+        <v>310014</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7829817599071488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7457148357175331</v>
+        <v>0.7505633491340769</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8153328639335091</v>
+        <v>0.8128492891704618</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>831</v>
@@ -1461,19 +1461,19 @@
         <v>581600</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>560462</v>
+        <v>558190</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>603217</v>
+        <v>601347</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.766471476575367</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7386139696360855</v>
+        <v>0.7356204212886396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7949590951655252</v>
+        <v>0.7924946904182252</v>
       </c>
     </row>
     <row r="15">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10872</v>
+        <v>11651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005384057099728696</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02024686292660152</v>
+        <v>0.02169744057586652</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8772</v>
+        <v>8200</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004373554098341162</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0165416491932153</v>
+        <v>0.01546382039298762</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1607,19 +1607,19 @@
         <v>5210</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1472</v>
+        <v>1731</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13213</v>
+        <v>14934</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004881970471130138</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001379519578820634</v>
+        <v>0.001622180765794284</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01237969344772124</v>
+        <v>0.01399274828046164</v>
       </c>
     </row>
     <row r="17">
@@ -1636,19 +1636,19 @@
         <v>3246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9581</v>
+        <v>8786</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006044822943984663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001496301562447004</v>
+        <v>0.001473826243205649</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01784298389633353</v>
+        <v>0.0163615579637997</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1670,19 +1670,19 @@
         <v>3246</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8736</v>
+        <v>9647</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003041343718041699</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0007478205575598632</v>
+        <v>0.000747037438605965</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.008184915280285162</v>
+        <v>0.009039148194266105</v>
       </c>
     </row>
     <row r="18">
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6923</v>
+        <v>5915</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.002213357520302604</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01289335302660758</v>
+        <v>0.01101575877003152</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3755</v>
+        <v>3466</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001305074748695116</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.007080200359000727</v>
+        <v>0.006535893755529908</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6580</v>
+        <v>8953</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001762060855191893</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006164871889120808</v>
+        <v>0.008388885617294102</v>
       </c>
     </row>
     <row r="19">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7154</v>
+        <v>6555</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002047319421499615</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01349072418754811</v>
+        <v>0.0123614326325218</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6300</v>
+        <v>5758</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001017247553538809</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005902798019684542</v>
+        <v>0.005395248953631308</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>5242</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1173</v>
+        <v>1193</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13377</v>
+        <v>13197</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009761650422289539</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002184381252545</v>
+        <v>0.002220999191682829</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02491098672031061</v>
+        <v>0.02457704008282159</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5024</v>
+        <v>5755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003043996801094356</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009473568426865735</v>
+        <v>0.01085297225146996</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1875,19 +1875,19 @@
         <v>6856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2734</v>
+        <v>2073</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15709</v>
+        <v>14621</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.006423863147904907</v>
+        <v>0.006423863147904906</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002561561318161023</v>
+        <v>0.001942016958485058</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01471892683366002</v>
+        <v>0.0136997979848368</v>
       </c>
     </row>
     <row r="21">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6426</v>
+        <v>6080</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.003303423186353735</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01196665188125801</v>
+        <v>0.01132279434825283</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2517</v>
+        <v>2491</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0009470349292633968</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.004745500553734257</v>
+        <v>0.004696854108002258</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1946,19 +1946,19 @@
         <v>2276</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6792</v>
+        <v>6802</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002132609211484608</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0004783105667501943</v>
+        <v>0.0004700129962913434</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.006364140756637494</v>
+        <v>0.006372823102051828</v>
       </c>
     </row>
     <row r="22">
@@ -1975,19 +1975,19 @@
         <v>12858</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5420</v>
+        <v>5108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28740</v>
+        <v>29200</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02394426170885246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0100925367733582</v>
+        <v>0.009512837977682672</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05352046099811574</v>
+        <v>0.05437731220332864</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -1996,19 +1996,19 @@
         <v>15762</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8335</v>
+        <v>8706</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29274</v>
+        <v>28571</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02972337985683304</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01571687707149647</v>
+        <v>0.01641715479225966</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05520366580962986</v>
+        <v>0.0538769053327672</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -2017,19 +2017,19 @@
         <v>28620</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17011</v>
+        <v>17744</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46468</v>
+        <v>48428</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02681572071808655</v>
+        <v>0.02681572071808654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01593898097357526</v>
+        <v>0.01662557681308243</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04353882961406725</v>
+        <v>0.04537538088525924</v>
       </c>
     </row>
     <row r="23">
@@ -2046,19 +2046,19 @@
         <v>14478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7007</v>
+        <v>6451</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32316</v>
+        <v>29469</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02696194995084621</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01304863615471723</v>
+        <v>0.01201317198903027</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06018048903180897</v>
+        <v>0.05487809572651316</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2067,19 +2067,19 @@
         <v>2594</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>719</v>
+        <v>680</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7111</v>
+        <v>6451</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.004891609854170422</v>
+        <v>0.004891609854170421</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001355418022372176</v>
+        <v>0.001282793779854542</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01340987999205547</v>
+        <v>0.01216477700890573</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2088,19 +2088,19 @@
         <v>17072</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8706</v>
+        <v>8890</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29596</v>
+        <v>31485</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01599590369868489</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008156877219301785</v>
+        <v>0.008329309104116575</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02773074193670599</v>
+        <v>0.02950071178422475</v>
       </c>
     </row>
     <row r="24">
@@ -2117,19 +2117,19 @@
         <v>38011</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25030</v>
+        <v>24884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56663</v>
+        <v>55205</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07078681234326782</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04661220267240399</v>
+        <v>0.04634013150364361</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1055203065737259</v>
+        <v>0.1028065077235365</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2138,19 +2138,19 @@
         <v>30726</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22551</v>
+        <v>23227</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40599</v>
+        <v>40844</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05794182861148762</v>
+        <v>0.05794182861148763</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04252555215030873</v>
+        <v>0.04379950828641752</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07655866859039842</v>
+        <v>0.07702118745591172</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -2159,19 +2159,19 @@
         <v>68738</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>52002</v>
+        <v>53038</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>88896</v>
+        <v>89826</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.064404550670183</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04872440610005045</v>
+        <v>0.04969440446984991</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08329206757176692</v>
+        <v>0.08416339179927383</v>
       </c>
     </row>
     <row r="25">
@@ -2188,19 +2188,19 @@
         <v>58718</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45534</v>
+        <v>45514</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74579</v>
+        <v>74307</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1093479174533082</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08479547136107699</v>
+        <v>0.08475875084785109</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1388858478648227</v>
+        <v>0.1383780282776552</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>99</v>
@@ -2209,19 +2209,19 @@
         <v>60884</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49847</v>
+        <v>49140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75631</v>
+        <v>73383</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1148108367655008</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09399822041673243</v>
+        <v>0.0926659905488887</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1426200643375103</v>
+        <v>0.1383809274304161</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>164</v>
@@ -2230,19 +2230,19 @@
         <v>119602</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100857</v>
+        <v>101263</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138079</v>
+        <v>137895</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1120622673721095</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09449968031419646</v>
+        <v>0.09487973205740587</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1293750965549992</v>
+        <v>0.1292023892890724</v>
       </c>
     </row>
     <row r="26">
@@ -2259,19 +2259,19 @@
         <v>398576</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>371444</v>
+        <v>375469</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>419074</v>
+        <v>421910</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7422517473710661</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6917257920174004</v>
+        <v>0.6992216551128049</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7804238743269443</v>
+        <v>0.7857057650832859</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>583</v>
@@ -2280,19 +2280,19 @@
         <v>414116</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>394801</v>
+        <v>395796</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>429973</v>
+        <v>430618</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7809153649131144</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.74449233313768</v>
+        <v>0.7463674051745209</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8108174573521532</v>
+        <v>0.8120341284073772</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>960</v>
@@ -2301,19 +2301,19 @@
         <v>812692</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>782916</v>
+        <v>781356</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>841454</v>
+        <v>838813</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.761462462583644</v>
+        <v>0.7614624625836439</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7335637830628172</v>
+        <v>0.7321014019349245</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7884112768757849</v>
+        <v>0.7859368678073937</v>
       </c>
     </row>
     <row r="27">
@@ -2405,19 +2405,19 @@
         <v>7799</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3333</v>
+        <v>3054</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15744</v>
+        <v>15511</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02083953765273493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008906271024322942</v>
+        <v>0.008161098875028009</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04206838881573068</v>
+        <v>0.04144548380658562</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2426,19 +2426,19 @@
         <v>2031</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5600</v>
+        <v>5308</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.00556767856843607</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001637974026688199</v>
+        <v>0.001666938632718501</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01534761381740194</v>
+        <v>0.01454839819088449</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -2447,19 +2447,19 @@
         <v>9831</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4786</v>
+        <v>4773</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18670</v>
+        <v>17419</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01330048511218033</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00647456993881873</v>
+        <v>0.006457345673209274</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0252590318982486</v>
+        <v>0.02356700476511052</v>
       </c>
     </row>
     <row r="29">
@@ -2476,19 +2476,19 @@
         <v>4573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13768</v>
+        <v>13430</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01221910425121558</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002328035620794692</v>
+        <v>0.002314981146810313</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03678697736832776</v>
+        <v>0.03588581944711404</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2497,19 +2497,19 @@
         <v>6143</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2722</v>
+        <v>2766</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11478</v>
+        <v>11565</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01683555616656144</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007460529790607753</v>
+        <v>0.007579691203004509</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0314573398245241</v>
+        <v>0.03169535486000071</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -2518,19 +2518,19 @@
         <v>10716</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5694</v>
+        <v>5585</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20640</v>
+        <v>19752</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01449804575719885</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007704007269099252</v>
+        <v>0.007556031463566005</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02792439769444352</v>
+        <v>0.02672404804220687</v>
       </c>
     </row>
     <row r="30">
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6772</v>
+        <v>6568</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005219760589555528</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01856085390203627</v>
+        <v>0.01800069762417974</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7100</v>
+        <v>6810</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002576768755955429</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.009605527293035087</v>
+        <v>0.009214198352398461</v>
       </c>
     </row>
     <row r="31">
@@ -2657,19 +2657,19 @@
         <v>3961</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>999</v>
+        <v>929</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10077</v>
+        <v>8981</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01058320748701468</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002669491112848729</v>
+        <v>0.002481556364844367</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0269251305224341</v>
+        <v>0.02399701016705187</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2678,19 +2678,19 @@
         <v>4769</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1646</v>
+        <v>1954</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11024</v>
+        <v>11509</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01306930223301417</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004510904059078263</v>
+        <v>0.005354518927931257</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03021303586326012</v>
+        <v>0.03154229270960331</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -2699,19 +2699,19 @@
         <v>8729</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4171</v>
+        <v>4124</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16532</v>
+        <v>16458</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01181048432393603</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005643783960975527</v>
+        <v>0.005579217084789637</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0223672322416372</v>
+        <v>0.02226639675682812</v>
       </c>
     </row>
     <row r="33">
@@ -2728,19 +2728,19 @@
         <v>7666</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>3048</v>
+        <v>3313</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15120</v>
+        <v>15098</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02048267996227817</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.008144582845751282</v>
+        <v>0.008852577441269055</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04040080573541056</v>
+        <v>0.04034232095104907</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -2749,19 +2749,19 @@
         <v>2915</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>720</v>
+        <v>763</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>7437</v>
+        <v>7614</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.007988351930547177</v>
+        <v>0.007988351930547179</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0019722486544329</v>
+        <v>0.002092404997395055</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0203822968244771</v>
+        <v>0.02086862405112313</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>11</v>
@@ -2770,19 +2770,19 @@
         <v>10580</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5473</v>
+        <v>5490</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>19507</v>
+        <v>19165</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01431477368641505</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.007404901200045486</v>
+        <v>0.007428061087718938</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02639206228939415</v>
+        <v>0.02592998388149276</v>
       </c>
     </row>
     <row r="34">
@@ -2799,19 +2799,19 @@
         <v>7018</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1353</v>
+        <v>1860</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>23862</v>
+        <v>22813</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01875203154247176</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003615142720628461</v>
+        <v>0.004971085605767703</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06375846455410993</v>
+        <v>0.0609555150904816</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>19</v>
@@ -2820,19 +2820,19 @@
         <v>16878</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10140</v>
+        <v>10069</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28528</v>
+        <v>27889</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04625599808324117</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02779103812007604</v>
+        <v>0.02759549089866377</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07818606566070208</v>
+        <v>0.07643442582944319</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>23</v>
@@ -2841,19 +2841,19 @@
         <v>23896</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14083</v>
+        <v>14650</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>37831</v>
+        <v>40863</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0323295434668516</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01905363524765891</v>
+        <v>0.01982069833768868</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05118340765884397</v>
+        <v>0.05528522615068383</v>
       </c>
     </row>
     <row r="35">
@@ -2870,19 +2870,19 @@
         <v>11935</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5688</v>
+        <v>6284</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19054</v>
+        <v>19648</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03189118417987173</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01519741896269052</v>
+        <v>0.01679156262604571</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05091163190583414</v>
+        <v>0.05249894204114243</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -2891,19 +2891,19 @@
         <v>9388</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5287</v>
+        <v>4989</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15614</v>
+        <v>14993</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02573028033785807</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01448976696244073</v>
+        <v>0.01367189775186855</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04279328017038262</v>
+        <v>0.04109006747943061</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>26</v>
@@ -2912,19 +2912,19 @@
         <v>21324</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13807</v>
+        <v>14239</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>31653</v>
+        <v>31877</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02884981393765946</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01868027035019195</v>
+        <v>0.01926516464850403</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04282447849769071</v>
+        <v>0.04312752895442211</v>
       </c>
     </row>
     <row r="36">
@@ -2941,19 +2941,19 @@
         <v>33427</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>22332</v>
+        <v>21829</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>49485</v>
+        <v>48150</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.0893162593196878</v>
+        <v>0.08931625931968783</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05967030262769397</v>
+        <v>0.05832607798665417</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1322232761957767</v>
+        <v>0.128656027147617</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -2962,19 +2962,19 @@
         <v>21268</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13771</v>
+        <v>13938</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31925</v>
+        <v>32930</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.0582891480963472</v>
+        <v>0.05828914809634721</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03774301454366736</v>
+        <v>0.03820022862483587</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0874960445219608</v>
+        <v>0.09024925831606397</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>52</v>
@@ -2983,19 +2983,19 @@
         <v>54695</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>39937</v>
+        <v>40316</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>71273</v>
+        <v>72471</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.07399952411389439</v>
+        <v>0.0739995241138944</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0540331228753767</v>
+        <v>0.05454617793785783</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09642866248704954</v>
+        <v>0.09804947722762818</v>
       </c>
     </row>
     <row r="37">
@@ -3012,19 +3012,19 @@
         <v>25002</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15600</v>
+        <v>15512</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>40055</v>
+        <v>38191</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06680654039615469</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04168309195460475</v>
+        <v>0.04144788765790486</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1070263594663093</v>
+        <v>0.1020467357709023</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -3033,19 +3033,19 @@
         <v>33336</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>23214</v>
+        <v>22665</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>46773</v>
+        <v>47495</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09136286700545256</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06362322052120398</v>
+        <v>0.06211696497808895</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1281901206312604</v>
+        <v>0.1301692738949262</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -3054,19 +3054,19 @@
         <v>58338</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>44488</v>
+        <v>42869</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>78029</v>
+        <v>77024</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.07892893070165791</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06018967189803814</v>
+        <v>0.05799991695436017</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1055697436470717</v>
+        <v>0.1042100029498408</v>
       </c>
     </row>
     <row r="38">
@@ -3083,19 +3083,19 @@
         <v>272869</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>250181</v>
+        <v>251020</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>292046</v>
+        <v>290771</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7291094552085706</v>
+        <v>0.7291094552085707</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6684874761107434</v>
+        <v>0.6707292287065721</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7803494477262836</v>
+        <v>0.7769419673444212</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>360</v>
@@ -3104,19 +3104,19 @@
         <v>266241</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>249132</v>
+        <v>247181</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>282292</v>
+        <v>282372</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7296810569889866</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6827918552090765</v>
+        <v>0.6774429974613507</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7736719983300617</v>
+        <v>0.7738923156641127</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>596</v>
@@ -3125,19 +3125,19 @@
         <v>539110</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>514132</v>
+        <v>510316</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>566852</v>
+        <v>562458</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7293916301442508</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6955970895619792</v>
+        <v>0.6904342608338583</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7669248295463695</v>
+        <v>0.7609808987252793</v>
       </c>
     </row>
     <row r="39">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4907</v>
+        <v>4312</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002430818063381728</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.008461203886280383</v>
+        <v>0.00743539572248171</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4946</v>
+        <v>4320</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001290498021892217</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004527662018084964</v>
+        <v>0.003954577129762588</v>
       </c>
     </row>
     <row r="41">
@@ -3292,19 +3292,19 @@
         <v>5251</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1771</v>
+        <v>1806</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>11378</v>
+        <v>10711</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0102466691384702</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003456248091308517</v>
+        <v>0.003524700313275187</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02220306997366801</v>
+        <v>0.02090304806919809</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3313,19 +3313,19 @@
         <v>3488</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1332</v>
+        <v>1345</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7822</v>
+        <v>7857</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.006014475163908336</v>
+        <v>0.006014475163908335</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002296908994593501</v>
+        <v>0.002319218741861119</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01348767017279541</v>
+        <v>0.01354823546182879</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>11</v>
@@ -3334,19 +3334,19 @@
         <v>8739</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4456</v>
+        <v>4694</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>14770</v>
+        <v>15241</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007999837903047308</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00407919692842305</v>
+        <v>0.004297337129555195</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01352125096607678</v>
+        <v>0.0139526667187768</v>
       </c>
     </row>
     <row r="42">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10543</v>
+        <v>9221</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.005387361323371644</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0205747305904353</v>
+        <v>0.01799533686048894</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -3400,16 +3400,16 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>8875</v>
+        <v>9440</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.002527262809311045</v>
+        <v>0.002527262809311046</v>
       </c>
       <c r="V42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.008124317646373613</v>
+        <v>0.008641713288668253</v>
       </c>
     </row>
     <row r="43">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>4354</v>
+        <v>4030</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.001232337145450216</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.007508203476075977</v>
+        <v>0.006949138477717875</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1</v>
@@ -3463,16 +3463,16 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4278</v>
+        <v>3572</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.000654235984364604</v>
+        <v>0.0006542359843646041</v>
       </c>
       <c r="V43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.003916601544547367</v>
+        <v>0.003269761808848034</v>
       </c>
     </row>
     <row r="44">
@@ -3489,19 +3489,19 @@
         <v>3790</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1077</v>
+        <v>1103</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8986</v>
+        <v>9326</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.007396349112897037</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002100993656746702</v>
+        <v>0.00215215402290743</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01753596181489239</v>
+        <v>0.01820028105039764</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>7</v>
@@ -3510,19 +3510,19 @@
         <v>5070</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2061</v>
+        <v>2233</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>10217</v>
+        <v>11010</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.008742799941396555</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003553589215095061</v>
+        <v>0.00385017611902814</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01761876043704983</v>
+        <v>0.0189856691093392</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>11</v>
@@ -3531,19 +3531,19 @@
         <v>8860</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4597</v>
+        <v>4193</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>16220</v>
+        <v>15234</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.008111166958349628</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004208473390163534</v>
+        <v>0.003838120603265254</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01484910986181485</v>
+        <v>0.01394585675779232</v>
       </c>
     </row>
     <row r="45">
@@ -3560,19 +3560,19 @@
         <v>5356</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>12457</v>
+        <v>12063</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01045113680445059</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.003481867190887842</v>
+        <v>0.003482446248671917</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02430951951521733</v>
+        <v>0.02354120229883027</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>8</v>
@@ -3581,19 +3581,19 @@
         <v>6334</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>3058</v>
+        <v>2909</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>12302</v>
+        <v>11968</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.01092222041478655</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.005272903547088276</v>
+        <v>0.005015387186988587</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.02121290671972561</v>
+        <v>0.02063742271425851</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>13</v>
@@ -3602,19 +3602,19 @@
         <v>11690</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>6172</v>
+        <v>6238</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>20289</v>
+        <v>20411</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.01070123058005741</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.005649946287266741</v>
+        <v>0.005710711895855314</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01857345038620413</v>
+        <v>0.01868570841534215</v>
       </c>
     </row>
     <row r="46">
@@ -3631,19 +3631,19 @@
         <v>8563</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3982</v>
+        <v>3977</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>16359</v>
+        <v>16866</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01671120798685802</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007771288105643339</v>
+        <v>0.007761347429540556</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03192507605402895</v>
+        <v>0.0329137196652315</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>8</v>
@@ -3652,19 +3652,19 @@
         <v>6899</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2913</v>
+        <v>2997</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>14854</v>
+        <v>13553</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01189625099942943</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.005022895908053737</v>
+        <v>0.005168356097096201</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02561328990525207</v>
+        <v>0.02336991006458318</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>17</v>
@@ -3673,19 +3673,19 @@
         <v>15462</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9139</v>
+        <v>9118</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>25455</v>
+        <v>26069</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.01415499345094648</v>
+        <v>0.01415499345094649</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00836665031831998</v>
+        <v>0.008347452081637213</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02330277678354778</v>
+        <v>0.02386494375169151</v>
       </c>
     </row>
     <row r="47">
@@ -3702,19 +3702,19 @@
         <v>3189</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>733</v>
+        <v>1091</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7691</v>
+        <v>7868</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.006223921641488465</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.00143069690586461</v>
+        <v>0.002129447894328084</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01500901005235519</v>
+        <v>0.0153551080934452</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>5</v>
@@ -3723,19 +3723,19 @@
         <v>3191</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1184</v>
+        <v>1169</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>7881</v>
+        <v>7040</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.005502660792583157</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002041801676712847</v>
+        <v>0.002015013872202952</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01358909240155918</v>
+        <v>0.01213907814434084</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>9</v>
@@ -3744,19 +3744,19 @@
         <v>6380</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3138</v>
+        <v>3200</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>12383</v>
+        <v>12066</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.005841011166697232</v>
+        <v>0.005841011166697235</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.002873140734578452</v>
+        <v>0.002929430666766285</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0113360966765614</v>
+        <v>0.01104632665130379</v>
       </c>
     </row>
     <row r="48">
@@ -3773,19 +3773,19 @@
         <v>10964</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5519</v>
+        <v>5106</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>22338</v>
+        <v>22879</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02139620355710694</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01077055800789541</v>
+        <v>0.009964861612587918</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04359258119011292</v>
+        <v>0.04464703355599608</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>18</v>
@@ -3794,19 +3794,19 @@
         <v>12626</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>7828</v>
+        <v>7958</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>19661</v>
+        <v>20331</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02177194849080279</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01349898463769652</v>
+        <v>0.01372215108776806</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.03390284718556588</v>
+        <v>0.03505785477668303</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>28</v>
@@ -3815,19 +3815,19 @@
         <v>23590</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>15468</v>
+        <v>15780</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>37619</v>
+        <v>35337</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.02159568294265829</v>
+        <v>0.0215956829426583</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01416045230863739</v>
+        <v>0.01444565056027319</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03443845495649583</v>
+        <v>0.03234961724050778</v>
       </c>
     </row>
     <row r="49">
@@ -3844,19 +3844,19 @@
         <v>61609</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>48082</v>
+        <v>47934</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>77614</v>
+        <v>76887</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1202287995692665</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.09383123089631676</v>
+        <v>0.09354181443398558</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1514611313833492</v>
+        <v>0.1500437825586924</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>96</v>
@@ -3865,19 +3865,19 @@
         <v>61905</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>49561</v>
+        <v>49835</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>77116</v>
+        <v>76596</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1067480171420031</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08546146026820521</v>
+        <v>0.08593366521434016</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1329761303033952</v>
+        <v>0.1320801433271031</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>169</v>
@@ -3886,19 +3886,19 @@
         <v>123515</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>105635</v>
+        <v>105176</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>142553</v>
+        <v>144635</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1130719813285215</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09670390797480577</v>
+        <v>0.09628419854532468</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1305012351552714</v>
+        <v>0.1324070237708521</v>
       </c>
     </row>
     <row r="50">
@@ -3915,19 +3915,19 @@
         <v>410950</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>392493</v>
+        <v>390739</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>428638</v>
+        <v>426571</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8019583508660907</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.7659399759671627</v>
+        <v>0.762518211132447</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8364768203194182</v>
+        <v>0.8324430976793039</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>684</v>
@@ -3936,19 +3936,19 @@
         <v>478282</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>460151</v>
+        <v>460459</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>493041</v>
+        <v>493503</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.824738471846258</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7934729102662597</v>
+        <v>0.7940035178562774</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8501881468231111</v>
+        <v>0.8509854565849726</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1105</v>
@@ -3957,19 +3957,19 @@
         <v>889232</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>863972</v>
+        <v>863887</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>910506</v>
+        <v>911979</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.8140520988541543</v>
+        <v>0.8140520988541544</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7909274641786191</v>
+        <v>0.7908496432199759</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8335270524340954</v>
+        <v>0.8348759175509409</v>
       </c>
     </row>
     <row r="51">
@@ -4061,19 +4061,19 @@
         <v>11575</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5826</v>
+        <v>5832</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>21862</v>
+        <v>20989</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.00642662697659929</v>
+        <v>0.006426626976599288</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.003234914387824565</v>
+        <v>0.003237987798022316</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01213809821282919</v>
+        <v>0.01165352612565179</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>10</v>
@@ -4082,19 +4082,19 @@
         <v>7616</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>3833</v>
+        <v>3567</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>14552</v>
+        <v>13947</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.00410217965283144</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.002064844115784344</v>
+        <v>0.001921397103586522</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.007838552708586346</v>
+        <v>0.007512788454786251</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>20</v>
@@ -4103,19 +4103,19 @@
         <v>19190</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>11229</v>
+        <v>11943</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>28959</v>
+        <v>30101</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.005246797469960466</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.003069958349658879</v>
+        <v>0.003265361881586642</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.007917672659002921</v>
+        <v>0.008229900395273368</v>
       </c>
     </row>
     <row r="53">
@@ -4132,19 +4132,19 @@
         <v>15512</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>8738</v>
+        <v>8962</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>27407</v>
+        <v>25782</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.008612774320518359</v>
+        <v>0.008612774320518357</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.004851661901611043</v>
+        <v>0.004976108613325429</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01521692527956225</v>
+        <v>0.01431488830471644</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>14</v>
@@ -4153,19 +4153,19 @@
         <v>10341</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>6084</v>
+        <v>5708</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>17329</v>
+        <v>17895</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.005570328789531779</v>
+        <v>0.005570328789531778</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.003276927103138491</v>
+        <v>0.003074689269911397</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.009334073321953823</v>
+        <v>0.009639043762309221</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>28</v>
@@ -4174,19 +4174,19 @@
         <v>25853</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>16949</v>
+        <v>17039</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>37203</v>
+        <v>37250</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.007068507443357715</v>
+        <v>0.007068507443357716</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.004633951015379668</v>
+        <v>0.004658634048557942</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01017147781153695</v>
+        <v>0.0101845029096926</v>
       </c>
     </row>
     <row r="54">
@@ -4203,19 +4203,19 @@
         <v>3949</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>11001</v>
+        <v>11445</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.002192688673708116</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.0006179170151855502</v>
+        <v>0.0006197696651494138</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.006108246093806203</v>
+        <v>0.006354485221206916</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>3</v>
@@ -4224,19 +4224,19 @@
         <v>2597</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>7782</v>
+        <v>7634</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.001398680921519985</v>
+        <v>0.001398680921519984</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.0003734287593111468</v>
+        <v>0.0003743937751236325</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.004191906353727894</v>
+        <v>0.00411208880903217</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>6</v>
@@ -4245,19 +4245,19 @@
         <v>6546</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2523</v>
+        <v>2355</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>14081</v>
+        <v>14183</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.001789670818688277</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.0006897110637315729</v>
+        <v>0.0006439644846262114</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.003849862968897394</v>
+        <v>0.00387782569483649</v>
       </c>
     </row>
     <row r="55">
@@ -4287,19 +4287,19 @@
         <v>2610</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>7738</v>
+        <v>6875</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.001405654548747616</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0003854832114416919</v>
+        <v>0.000382260566494781</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.004167833411401389</v>
+        <v>0.00370319442663664</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>3</v>
@@ -4308,19 +4308,19 @@
         <v>2610</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>7188</v>
+        <v>7180</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.0007134739926329046</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.0001947983949463639</v>
+        <v>0.0001942701152706735</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.001965381724987512</v>
+        <v>0.001963179639443967</v>
       </c>
     </row>
     <row r="56">
@@ -4337,19 +4337,19 @@
         <v>15378</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>8097</v>
+        <v>9036</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>25740</v>
+        <v>25537</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.008538049858101244</v>
+        <v>0.008538049858101242</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.004495753849352756</v>
+        <v>0.005016891594031484</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01429153180289782</v>
+        <v>0.01417849654706243</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>24</v>
@@ -4358,19 +4358,19 @@
         <v>16609</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>10746</v>
+        <v>11073</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>25844</v>
+        <v>25851</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.008946510307096761</v>
+        <v>0.008946510307096759</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.005788608205491506</v>
+        <v>0.005964645691938415</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01392087458732235</v>
+        <v>0.01392492343013877</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>38</v>
@@ -4379,19 +4379,19 @@
         <v>31987</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>22739</v>
+        <v>23054</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>45190</v>
+        <v>45171</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.008745373846514406</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.006216993606853706</v>
+        <v>0.006303124796127984</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01235525641153913</v>
+        <v>0.01235007081456001</v>
       </c>
     </row>
     <row r="57">
@@ -4408,19 +4408,19 @@
         <v>19203</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>11080</v>
+        <v>10687</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>38977</v>
+        <v>34911</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.01066198117296705</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.00615165743796199</v>
+        <v>0.005933797826237611</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.02164092461158644</v>
+        <v>0.01938345115451255</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>14</v>
@@ -4429,19 +4429,19 @@
         <v>10439</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>5821</v>
+        <v>5789</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>16919</v>
+        <v>17247</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.005623238626210451</v>
+        <v>0.00562323862621045</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.003135373239519023</v>
+        <v>0.003118296540367353</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.009113741477720171</v>
+        <v>0.009290074641065115</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>29</v>
@@ -4450,19 +4450,19 @@
         <v>29642</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>20025</v>
+        <v>19714</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>47138</v>
+        <v>46653</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.008104445421464847</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.005475031250866964</v>
+        <v>0.005389890883228743</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01288789102564847</v>
+        <v>0.01275524087728722</v>
       </c>
     </row>
     <row r="58">
@@ -4479,19 +4479,19 @@
         <v>34281</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>21899</v>
+        <v>21158</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>54711</v>
+        <v>54739</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.01903344387127937</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.01215893527400696</v>
+        <v>0.01174768550971177</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.03037694367475076</v>
+        <v>0.03039242727263511</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>51</v>
@@ -4500,19 +4500,19 @@
         <v>45511</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>33626</v>
+        <v>33401</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>64423</v>
+        <v>63907</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.02451482050059597</v>
+        <v>0.02451482050059596</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.01811301277028087</v>
+        <v>0.01799132182537935</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.03470157319888302</v>
+        <v>0.03442395681715574</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>78</v>
@@ -4521,19 +4521,19 @@
         <v>79792</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>61193</v>
+        <v>61620</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>104646</v>
+        <v>103823</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.02181564926614512</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.01673069456983009</v>
+        <v>0.01684743079337749</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.02861099254514637</v>
+        <v>0.02838593280354526</v>
       </c>
     </row>
     <row r="59">
@@ -4550,19 +4550,19 @@
         <v>34404</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>23699</v>
+        <v>23017</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>50125</v>
+        <v>50229</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.01910197867140283</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.01315807722360166</v>
+        <v>0.0127794263155575</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.02783056999923603</v>
+        <v>0.0278881712663281</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>30</v>
@@ -4571,19 +4571,19 @@
         <v>18881</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>13065</v>
+        <v>12836</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>26910</v>
+        <v>26408</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01017058160085896</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.007037408727010906</v>
+        <v>0.006914111470658344</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01449508104707607</v>
+        <v>0.01422457181854747</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>61</v>
@@ -4592,19 +4592,19 @@
         <v>53286</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>40099</v>
+        <v>40091</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>70459</v>
+        <v>70494</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.01456863188759435</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.0109632522521954</v>
+        <v>0.01096104483074955</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.01926408081270484</v>
+        <v>0.01927356657886981</v>
       </c>
     </row>
     <row r="60">
@@ -4621,19 +4621,19 @@
         <v>99664</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>78679</v>
+        <v>75620</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>123987</v>
+        <v>124136</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>0.055335943644562</v>
+        <v>0.05533594364456199</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.04368474302995937</v>
+        <v>0.04198629949298947</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.06884031831228925</v>
+        <v>0.06892333814792558</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>132</v>
@@ -4642,19 +4642,19 @@
         <v>87540</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>73224</v>
+        <v>72874</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>104866</v>
+        <v>104012</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>0.04715386721285253</v>
+        <v>0.04715386721285252</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.03944222925549803</v>
+        <v>0.0392537784100815</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.05648626101085061</v>
+        <v>0.0560265512395626</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>210</v>
@@ -4663,19 +4663,19 @@
         <v>187204</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>160015</v>
+        <v>158571</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>220017</v>
+        <v>218531</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.05118293268965809</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.04374925028907731</v>
+        <v>0.04335432983501972</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.06015424560624219</v>
+        <v>0.05974787622981564</v>
       </c>
     </row>
     <row r="61">
@@ -4692,19 +4692,19 @@
         <v>201737</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>176976</v>
+        <v>175511</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>230625</v>
+        <v>231632</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.1120092047019467</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.09826143649984029</v>
+        <v>0.0974476789595223</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.1280487449998928</v>
+        <v>0.1286077839668869</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>314</v>
@@ -4713,19 +4713,19 @@
         <v>197074</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>175538</v>
+        <v>172474</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>221418</v>
+        <v>218833</v>
       </c>
       <c r="N61" s="6" t="n">
-        <v>0.1061545631277714</v>
+        <v>0.1061545631277713</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.0945539750604983</v>
+        <v>0.09290357538835858</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.1192674965700399</v>
+        <v>0.117875148013496</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>541</v>
@@ -4734,19 +4734,19 @@
         <v>398811</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>366191</v>
+        <v>367773</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>437463</v>
+        <v>438530</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.1090375396487634</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.1001191969681145</v>
+        <v>0.1005515017529946</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.1196052151610037</v>
+        <v>0.1198970939134655</v>
       </c>
     </row>
     <row r="62">
@@ -4763,19 +4763,19 @@
         <v>1365372</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1324638</v>
+        <v>1322310</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>1404970</v>
+        <v>1405828</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.7580873081089151</v>
+        <v>0.758087308108915</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.7354709153955055</v>
+        <v>0.7341779410043384</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.7800727758517279</v>
+        <v>0.7805492456586409</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>2148</v>
@@ -4784,19 +4784,19 @@
         <v>1457263</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>1426212</v>
+        <v>1424424</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>1488793</v>
+        <v>1489452</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.7849595747119833</v>
+        <v>0.7849595747119832</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.7682340038576638</v>
+        <v>0.767270846826256</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.8019436879044435</v>
+        <v>0.8022984401502752</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>3492</v>
@@ -4805,19 +4805,19 @@
         <v>2822634</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>2762928</v>
+        <v>2761087</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>2869835</v>
+        <v>2867546</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.7717269775152205</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.7554029725988942</v>
+        <v>0.7548995677315962</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.7846319552925275</v>
+        <v>0.7840063236589389</v>
       </c>
     </row>
     <row r="63">
